--- a/Front Panel/BOM-FP-Rev2c.xlsx
+++ b/Front Panel/BOM-FP-Rev2c.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Dynamic DC Load\PaBu ElectronicLoad_DC_10Amp\FacePlate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Curve Tracer\Version 3\Final Version\Front Panel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778F954B-ADCF-40B6-B556-C0BF49F717E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{860B9147-BFB4-4517-87BD-45DCC605D5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="12645" xr2:uid="{045EFDA7-D80F-406D-8318-0D6024B6C034}"/>
+    <workbookView xWindow="3870" yWindow="1470" windowWidth="21600" windowHeight="12645" xr2:uid="{045EFDA7-D80F-406D-8318-0D6024B6C034}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM-FacePlateRev2b28JUN22" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="121">
   <si>
     <t>Quantity</t>
   </si>
@@ -385,6 +385,12 @@
   </si>
   <si>
     <t>Optional! NQ-4.0-3P 4MM 3PIN SMC</t>
+  </si>
+  <si>
+    <t>Changelog:</t>
+  </si>
+  <si>
+    <t>Changed P1, P2 to optional because they are a pain to use.</t>
   </si>
 </sst>
 </file>
@@ -447,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -466,6 +472,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE43F4E9-E425-4156-904B-975EBF3C22ED}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,6 +1402,19 @@
         <v>111</v>
       </c>
     </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>45505</v>
+      </c>
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
